--- a/DeempData.xlsx
+++ b/DeempData.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15860" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -45,7 +45,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,6 +110,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -120,202 +125,380 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="18"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>De-emphasis filter</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="47625">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$27</c:f>
+              <c:f>Sheet1!$B$3:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>130.25</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99.0</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>940.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5000.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10000.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1000.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>910.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7674.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6600.0</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>150.0</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>300.0</c:v>
+                  <c:v>910</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>400.0</c:v>
+                  <c:v>940</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>500.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>600.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>700.0</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>800.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>900.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000.0</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3000.0</c:v>
+                  <c:v>6600</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4000.0</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6000.0</c:v>
+                  <c:v>7674</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8000.0</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$27</c:f>
+              <c:f>Sheet1!$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-3.0099287958733836</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.17080291970802919"/>
+                  <c:y val="5.0925561388159811E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>500, -28.125</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>2000, -21.909</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7674</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>-3.0099287958733836</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-2.879913051921374</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>-6.717623576699637</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.009928795873384</c:v>
+                  <c:v>-6.7176235766996371</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-13.54510198868276</c:v>
+                  <c:v>-9.1522955113614088</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-31.15174793242813</c:v>
+                  <c:v>-13.545101988682759</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7.011634514559874</c:v>
+                  <c:v>-20.694173026821382</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.127436360125268</c:v>
+                  <c:v>-24.895041786405933</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-30.79624614773432</c:v>
+                  <c:v>-28.125032040173888</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-31.27616745839256</c:v>
+                  <c:v>-30.212822225619078</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.293437494370247</c:v>
+                  <c:v>-31.126736402768604</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.002041400862774</c:v>
+                  <c:v>-31.518457442088579</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-9.152295511361408</c:v>
+                  <c:v>-31.511997129676175</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-20.69417302682138</c:v>
+                  <c:v>-31.276167458392557</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-24.89504178640593</c:v>
+                  <c:v>-31.151747932428133</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-28.12503204017389</c:v>
+                  <c:v>-30.796246147734323</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-30.21282222561908</c:v>
+                  <c:v>-21.909506369916478</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-31.1267364027686</c:v>
+                  <c:v>-15.246281755998446</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-31.51845744208858</c:v>
+                  <c:v>-10.564617635331084</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-31.51199712967617</c:v>
+                  <c:v>-7.0116345145598737</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-21.90950636991648</c:v>
+                  <c:v>-4.2760366291777343</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-15.24628175599845</c:v>
+                  <c:v>-3.0020414008627743</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-10.56461763533108</c:v>
+                  <c:v>-2.1809285804027208</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-4.276036629177734</c:v>
+                  <c:v>-1.2934374943702467</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-2.180928580402721</c:v>
+                  <c:v>-0.90333719763211295</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.903337197632113</c:v>
+                  <c:v>0.21355653179613934</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.213556531796139</c:v>
+                  <c:v>1.1274363601252684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -325,55 +508,105 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2141827096"/>
-        <c:axId val="-2142016680"/>
+        <c:axId val="45314432"/>
+        <c:axId val="45316352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2141827096"/>
+        <c:axId val="45314432"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="90.0"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Frequency (Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142016680"/>
+        <c:crossAx val="45316352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2142016680"/>
+        <c:axId val="45316352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>20log│H(j</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>ω)│ (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>dB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141827096"/>
+        <c:crossAx val="45314432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -383,16 +616,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -736,532 +969,527 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="B2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="2:6">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3">
+    <row r="3" spans="2:6">
+      <c r="B3" s="3">
+        <v>99</v>
+      </c>
+      <c r="C3">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E28" si="0">D3/C3</f>
+        <v>0.70713699753896631</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F28" si="1">20*LOG(E3)</f>
+        <v>-3.0099287958733836</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="3">
         <v>100</v>
       </c>
-      <c r="B2">
+      <c r="C4">
         <v>1.2190000000000001</v>
       </c>
-      <c r="C2">
+      <c r="D4">
         <v>0.875</v>
       </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D27" si="0">C2/B2</f>
+      <c r="E4">
+        <f t="shared" si="0"/>
         <v>0.71780147662018046</v>
       </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E27" si="1">20*LOG(D2)</f>
+      <c r="F4">
+        <f t="shared" si="1"/>
         <v>-2.879913051921374</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>130.25</v>
-      </c>
-      <c r="B3">
+    <row r="5" spans="2:6">
+      <c r="B5">
+        <v>130</v>
+      </c>
+      <c r="C5">
         <v>1.2190000000000001</v>
       </c>
-      <c r="C3">
+      <c r="D5">
         <v>0.5625</v>
       </c>
-      <c r="D3">
-        <f t="shared" si="0"/>
+      <c r="E5">
+        <f>D5/C5</f>
         <v>0.46144380639868743</v>
       </c>
-      <c r="E3">
-        <f t="shared" si="1"/>
+      <c r="F5">
+        <f>20*LOG(E5)</f>
         <v>-6.7176235766996371</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
-        <v>99</v>
-      </c>
-      <c r="B4">
+    <row r="6" spans="2:6">
+      <c r="B6" s="2">
+        <v>150</v>
+      </c>
+      <c r="C6">
         <v>1.2190000000000001</v>
       </c>
-      <c r="C4">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0.70713699753896631</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>-3.0099287958733836</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
+      <c r="D6">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.34864643150123048</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>-9.1522955113614088</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7">
         <v>200</v>
       </c>
-      <c r="B5">
+      <c r="C7">
         <v>1.2190000000000001</v>
       </c>
-      <c r="C5">
+      <c r="D7">
         <v>0.25629999999999997</v>
       </c>
-      <c r="D5">
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>0.21025430680885968</v>
       </c>
-      <c r="E5">
+      <c r="F7">
         <f t="shared" si="1"/>
         <v>-13.545101988682759</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
+    <row r="8" spans="2:6">
+      <c r="B8" s="1">
+        <v>300</v>
+      </c>
+      <c r="C8">
+        <v>4.0620000000000003</v>
+      </c>
+      <c r="D8">
+        <v>0.375</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>9.2319054652880345E-2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>-20.694173026821382</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="2">
+        <v>400</v>
+      </c>
+      <c r="C9">
+        <v>4.0620000000000003</v>
+      </c>
+      <c r="D9">
+        <v>0.23119999999999999</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>5.6917774495322496E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>-24.895041786405933</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="1">
+        <v>500</v>
+      </c>
+      <c r="C10">
+        <v>4.0620000000000003</v>
+      </c>
+      <c r="D10">
+        <v>0.15939999999999999</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>3.9241752831117672E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>-28.125032040173888</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="2">
+        <v>600</v>
+      </c>
+      <c r="C11">
+        <v>5.0620000000000003</v>
+      </c>
+      <c r="D11">
+        <v>0.15620000000000001</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>3.0857368629000393E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>-30.212822225619078</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="1">
+        <v>700</v>
+      </c>
+      <c r="C12">
+        <v>5.0620000000000003</v>
+      </c>
+      <c r="D12">
+        <v>0.1406</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>2.7775582773607269E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>-31.126736402768604</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="2">
+        <v>800</v>
+      </c>
+      <c r="C13">
+        <v>5.0620000000000003</v>
+      </c>
+      <c r="D13">
+        <v>0.13439999999999999</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>2.6550770446463846E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>-31.518457442088579</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="1">
+        <v>900</v>
+      </c>
+      <c r="C14">
+        <v>5.0620000000000003</v>
+      </c>
+      <c r="D14">
+        <v>0.13450000000000001</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>2.6570525483998419E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>-31.511997129676175</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="1">
+        <v>910</v>
+      </c>
+      <c r="C15">
+        <v>4.0620000000000003</v>
+      </c>
+      <c r="D15">
+        <v>0.1109</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>2.730182176267848E-2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>-31.276167458392557</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="2">
         <v>940</v>
       </c>
-      <c r="B6">
+      <c r="C16">
         <v>4.0620000000000003</v>
       </c>
-      <c r="C6">
+      <c r="D16">
         <v>0.1125</v>
       </c>
-      <c r="D6">
+      <c r="E16">
         <f t="shared" si="0"/>
         <v>2.7695716395864104E-2</v>
       </c>
-      <c r="E6">
+      <c r="F16">
         <f t="shared" si="1"/>
         <v>-31.151747932428133</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
+    <row r="17" spans="2:6">
+      <c r="B17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C17">
+        <v>4.0620000000000003</v>
+      </c>
+      <c r="D17">
+        <v>0.1172</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>2.8852781880846872E-2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>-30.796246147734323</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C18">
+        <v>5.0620000000000003</v>
+      </c>
+      <c r="D18">
+        <v>0.40629999999999999</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>8.0264717502963254E-2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>-21.909506369916478</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C19">
+        <v>5.0620000000000003</v>
+      </c>
+      <c r="D19">
+        <v>0.875</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0.17285657842749899</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>-15.246281755998446</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C20">
+        <v>5.0620000000000003</v>
+      </c>
+      <c r="D20">
+        <v>1.5</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.29632556301856972</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>-10.564617635331084</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="2">
         <v>5000</v>
       </c>
-      <c r="B7">
+      <c r="C21">
         <v>4.0620000000000003</v>
       </c>
-      <c r="C7">
+      <c r="D21">
         <v>1.8120000000000001</v>
       </c>
-      <c r="D7">
+      <c r="E21">
         <f t="shared" si="0"/>
         <v>0.44608567208271788</v>
       </c>
-      <c r="E7">
+      <c r="F21">
         <f t="shared" si="1"/>
         <v>-7.0116345145598737</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
+    <row r="22" spans="2:6">
+      <c r="B22" s="1">
+        <v>6000</v>
+      </c>
+      <c r="C22">
+        <v>5.0620000000000003</v>
+      </c>
+      <c r="D22">
+        <v>3.0939999999999999</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0.61122086131963649</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>-4.2760366291777343</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="1">
+        <v>6600</v>
+      </c>
+      <c r="C23">
+        <v>4.0620000000000003</v>
+      </c>
+      <c r="D23">
+        <v>2.875</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0.70777941900541597</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>-3.0020414008627743</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="2">
+        <v>7000</v>
+      </c>
+      <c r="C24">
+        <v>5.0620000000000003</v>
+      </c>
+      <c r="D24">
+        <v>3.9380000000000002</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0.7779533781114184</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>-2.1809285804027208</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="2">
+        <v>7674</v>
+      </c>
+      <c r="C25">
+        <v>4.0620000000000003</v>
+      </c>
+      <c r="D25">
+        <v>3.5</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0.86164451009354992</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>-1.2934374943702467</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="1">
+        <v>8000</v>
+      </c>
+      <c r="C26">
+        <v>5.0620000000000003</v>
+      </c>
+      <c r="D26">
+        <v>4.5620000000000003</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0.90122481232714347</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>-0.90333719763211295</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="2">
+        <v>9000</v>
+      </c>
+      <c r="C27">
+        <v>5.0620000000000003</v>
+      </c>
+      <c r="D27">
+        <v>5.1879999999999997</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>1.0248913472935597</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>0.21355653179613934</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="1">
         <v>10000</v>
       </c>
-      <c r="B8">
+      <c r="C28">
         <v>4.0620000000000003</v>
       </c>
-      <c r="C8">
+      <c r="D28">
         <v>4.625</v>
       </c>
-      <c r="D8">
+      <c r="E28">
         <f t="shared" si="0"/>
         <v>1.1386016740521909</v>
       </c>
-      <c r="E8">
+      <c r="F28">
         <f t="shared" si="1"/>
         <v>1.1274363601252684</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2">
-        <v>1000</v>
-      </c>
-      <c r="B9">
-        <v>4.0620000000000003</v>
-      </c>
-      <c r="C9">
-        <v>0.1172</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>2.8852781880846872E-2</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>-30.796246147734323</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>910</v>
-      </c>
-      <c r="B10">
-        <v>4.0620000000000003</v>
-      </c>
-      <c r="C10">
-        <v>0.1109</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>2.730182176267848E-2</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>-31.276167458392557</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2">
-        <v>7674</v>
-      </c>
-      <c r="B11">
-        <v>4.0620000000000003</v>
-      </c>
-      <c r="C11">
-        <v>3.5</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0.86164451009354992</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>-1.2934374943702467</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>6600</v>
-      </c>
-      <c r="B12">
-        <v>4.0620000000000003</v>
-      </c>
-      <c r="C12">
-        <v>2.875</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0.70777941900541597</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>-3.0020414008627743</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2">
-        <v>150</v>
-      </c>
-      <c r="B13">
-        <v>1.2190000000000001</v>
-      </c>
-      <c r="C13">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>0.34864643150123048</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>-9.1522955113614088</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>300</v>
-      </c>
-      <c r="B14">
-        <v>4.0620000000000003</v>
-      </c>
-      <c r="C14">
-        <v>0.375</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>9.2319054652880345E-2</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>-20.694173026821382</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2">
-        <v>400</v>
-      </c>
-      <c r="B15">
-        <v>4.0620000000000003</v>
-      </c>
-      <c r="C15">
-        <v>0.23119999999999999</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>5.6917774495322496E-2</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>-24.895041786405933</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>500</v>
-      </c>
-      <c r="B16">
-        <v>4.0620000000000003</v>
-      </c>
-      <c r="C16">
-        <v>0.15939999999999999</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>3.9241752831117672E-2</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>-28.125032040173888</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2">
-        <v>600</v>
-      </c>
-      <c r="B17">
-        <v>5.0620000000000003</v>
-      </c>
-      <c r="C17">
-        <v>0.15620000000000001</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>3.0857368629000393E-2</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>-30.212822225619078</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>700</v>
-      </c>
-      <c r="B18">
-        <v>5.0620000000000003</v>
-      </c>
-      <c r="C18">
-        <v>0.1406</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>2.7775582773607269E-2</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>-31.126736402768604</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2">
-        <v>800</v>
-      </c>
-      <c r="B19">
-        <v>5.0620000000000003</v>
-      </c>
-      <c r="C19">
-        <v>0.13439999999999999</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>2.6550770446463846E-2</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>-31.518457442088579</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>900</v>
-      </c>
-      <c r="B20">
-        <v>5.0620000000000003</v>
-      </c>
-      <c r="C20">
-        <v>0.13450000000000001</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>2.6570525483998419E-2</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
-        <v>-31.511997129676175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2">
-        <v>2000</v>
-      </c>
-      <c r="B21">
-        <v>5.0620000000000003</v>
-      </c>
-      <c r="C21">
-        <v>0.40629999999999999</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>8.0264717502963254E-2</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>-21.909506369916478</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>3000</v>
-      </c>
-      <c r="B22">
-        <v>5.0620000000000003</v>
-      </c>
-      <c r="C22">
-        <v>0.875</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>0.17285657842749899</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>-15.246281755998446</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2">
-        <v>4000</v>
-      </c>
-      <c r="B23">
-        <v>5.0620000000000003</v>
-      </c>
-      <c r="C23">
-        <v>1.5</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>0.29632556301856972</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
-        <v>-10.564617635331084</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1">
-        <v>6000</v>
-      </c>
-      <c r="B24">
-        <v>5.0620000000000003</v>
-      </c>
-      <c r="C24">
-        <v>3.0939999999999999</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>0.61122086131963649</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>-4.2760366291777343</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2">
-        <v>7000</v>
-      </c>
-      <c r="B25">
-        <v>5.0620000000000003</v>
-      </c>
-      <c r="C25">
-        <v>3.9380000000000002</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>0.7779533781114184</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
-        <v>-2.1809285804027208</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B26">
-        <v>5.0620000000000003</v>
-      </c>
-      <c r="C26">
-        <v>4.5620000000000003</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>0.90122481232714347</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="1"/>
-        <v>-0.90333719763211295</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2">
-        <v>9000</v>
-      </c>
-      <c r="B27">
-        <v>5.0620000000000003</v>
-      </c>
-      <c r="C27">
-        <v>5.1879999999999997</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>1.0248913472935597</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="1"/>
-        <v>0.21355653179613934</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>